--- a/stock/data/한국타이어앤테크놀로지.xlsx
+++ b/stock/data/한국타이어앤테크놀로지.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2828"/>
+  <dimension ref="A1:G2861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65489,10 +65489,769 @@
         <v>54200</v>
       </c>
       <c r="F2828" t="n">
-        <v>76501</v>
+        <v>76519</v>
       </c>
       <c r="G2828" t="n">
         <v>0.1848428835489834</v>
+      </c>
+    </row>
+    <row r="2829">
+      <c r="A2829" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B2829" t="n">
+        <v>55400</v>
+      </c>
+      <c r="C2829" t="n">
+        <v>55400</v>
+      </c>
+      <c r="D2829" t="n">
+        <v>53900</v>
+      </c>
+      <c r="E2829" t="n">
+        <v>54300</v>
+      </c>
+      <c r="F2829" t="n">
+        <v>89332</v>
+      </c>
+      <c r="G2829" t="n">
+        <v>0.1845018450184502</v>
+      </c>
+    </row>
+    <row r="2830">
+      <c r="A2830" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B2830" t="n">
+        <v>53700</v>
+      </c>
+      <c r="C2830" t="n">
+        <v>54600</v>
+      </c>
+      <c r="D2830" t="n">
+        <v>52100</v>
+      </c>
+      <c r="E2830" t="n">
+        <v>52600</v>
+      </c>
+      <c r="F2830" t="n">
+        <v>242780</v>
+      </c>
+      <c r="G2830" t="n">
+        <v>-3.130755064456722</v>
+      </c>
+    </row>
+    <row r="2831">
+      <c r="A2831" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B2831" t="n">
+        <v>51900</v>
+      </c>
+      <c r="C2831" t="n">
+        <v>52900</v>
+      </c>
+      <c r="D2831" t="n">
+        <v>50700</v>
+      </c>
+      <c r="E2831" t="n">
+        <v>51600</v>
+      </c>
+      <c r="F2831" t="n">
+        <v>261353</v>
+      </c>
+      <c r="G2831" t="n">
+        <v>-1.901140684410646</v>
+      </c>
+    </row>
+    <row r="2832">
+      <c r="A2832" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B2832" t="n">
+        <v>53700</v>
+      </c>
+      <c r="C2832" t="n">
+        <v>54500</v>
+      </c>
+      <c r="D2832" t="n">
+        <v>52700</v>
+      </c>
+      <c r="E2832" t="n">
+        <v>54000</v>
+      </c>
+      <c r="F2832" t="n">
+        <v>214185</v>
+      </c>
+      <c r="G2832" t="n">
+        <v>4.651162790697675</v>
+      </c>
+    </row>
+    <row r="2833">
+      <c r="A2833" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B2833" t="n">
+        <v>52900</v>
+      </c>
+      <c r="C2833" t="n">
+        <v>55900</v>
+      </c>
+      <c r="D2833" t="n">
+        <v>52900</v>
+      </c>
+      <c r="E2833" t="n">
+        <v>54900</v>
+      </c>
+      <c r="F2833" t="n">
+        <v>180302</v>
+      </c>
+      <c r="G2833" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="2834">
+      <c r="A2834" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B2834" t="n">
+        <v>53800</v>
+      </c>
+      <c r="C2834" t="n">
+        <v>55100</v>
+      </c>
+      <c r="D2834" t="n">
+        <v>53400</v>
+      </c>
+      <c r="E2834" t="n">
+        <v>54700</v>
+      </c>
+      <c r="F2834" t="n">
+        <v>210659</v>
+      </c>
+      <c r="G2834" t="n">
+        <v>-0.3642987249544626</v>
+      </c>
+    </row>
+    <row r="2835">
+      <c r="A2835" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B2835" t="n">
+        <v>55700</v>
+      </c>
+      <c r="C2835" t="n">
+        <v>56200</v>
+      </c>
+      <c r="D2835" t="n">
+        <v>54800</v>
+      </c>
+      <c r="E2835" t="n">
+        <v>56000</v>
+      </c>
+      <c r="F2835" t="n">
+        <v>120114</v>
+      </c>
+      <c r="G2835" t="n">
+        <v>2.376599634369287</v>
+      </c>
+    </row>
+    <row r="2836">
+      <c r="A2836" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B2836" t="n">
+        <v>54900</v>
+      </c>
+      <c r="C2836" t="n">
+        <v>60500</v>
+      </c>
+      <c r="D2836" t="n">
+        <v>54900</v>
+      </c>
+      <c r="E2836" t="n">
+        <v>60500</v>
+      </c>
+      <c r="F2836" t="n">
+        <v>550370</v>
+      </c>
+      <c r="G2836" t="n">
+        <v>8.035714285714286</v>
+      </c>
+    </row>
+    <row r="2837">
+      <c r="A2837" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B2837" t="n">
+        <v>60000</v>
+      </c>
+      <c r="C2837" t="n">
+        <v>61500</v>
+      </c>
+      <c r="D2837" t="n">
+        <v>59300</v>
+      </c>
+      <c r="E2837" t="n">
+        <v>59800</v>
+      </c>
+      <c r="F2837" t="n">
+        <v>344196</v>
+      </c>
+      <c r="G2837" t="n">
+        <v>-1.15702479338843</v>
+      </c>
+    </row>
+    <row r="2838">
+      <c r="A2838" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B2838" t="n">
+        <v>59700</v>
+      </c>
+      <c r="C2838" t="n">
+        <v>60400</v>
+      </c>
+      <c r="D2838" t="n">
+        <v>58800</v>
+      </c>
+      <c r="E2838" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F2838" t="n">
+        <v>277857</v>
+      </c>
+      <c r="G2838" t="n">
+        <v>0.3344481605351171</v>
+      </c>
+    </row>
+    <row r="2839">
+      <c r="A2839" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B2839" t="n">
+        <v>60500</v>
+      </c>
+      <c r="C2839" t="n">
+        <v>63300</v>
+      </c>
+      <c r="D2839" t="n">
+        <v>60100</v>
+      </c>
+      <c r="E2839" t="n">
+        <v>63100</v>
+      </c>
+      <c r="F2839" t="n">
+        <v>430954</v>
+      </c>
+      <c r="G2839" t="n">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="2840">
+      <c r="A2840" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B2840" t="n">
+        <v>63100</v>
+      </c>
+      <c r="C2840" t="n">
+        <v>63200</v>
+      </c>
+      <c r="D2840" t="n">
+        <v>61200</v>
+      </c>
+      <c r="E2840" t="n">
+        <v>62700</v>
+      </c>
+      <c r="F2840" t="n">
+        <v>324209</v>
+      </c>
+      <c r="G2840" t="n">
+        <v>-0.6339144215530903</v>
+      </c>
+    </row>
+    <row r="2841">
+      <c r="A2841" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B2841" t="n">
+        <v>62600</v>
+      </c>
+      <c r="C2841" t="n">
+        <v>62700</v>
+      </c>
+      <c r="D2841" t="n">
+        <v>60200</v>
+      </c>
+      <c r="E2841" t="n">
+        <v>60900</v>
+      </c>
+      <c r="F2841" t="n">
+        <v>282693</v>
+      </c>
+      <c r="G2841" t="n">
+        <v>-2.870813397129186</v>
+      </c>
+    </row>
+    <row r="2842">
+      <c r="A2842" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B2842" t="n">
+        <v>61100</v>
+      </c>
+      <c r="C2842" t="n">
+        <v>61100</v>
+      </c>
+      <c r="D2842" t="n">
+        <v>58100</v>
+      </c>
+      <c r="E2842" t="n">
+        <v>58800</v>
+      </c>
+      <c r="F2842" t="n">
+        <v>372419</v>
+      </c>
+      <c r="G2842" t="n">
+        <v>-3.448275862068965</v>
+      </c>
+    </row>
+    <row r="2843">
+      <c r="A2843" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B2843" t="n">
+        <v>59400</v>
+      </c>
+      <c r="C2843" t="n">
+        <v>59700</v>
+      </c>
+      <c r="D2843" t="n">
+        <v>57500</v>
+      </c>
+      <c r="E2843" t="n">
+        <v>58200</v>
+      </c>
+      <c r="F2843" t="n">
+        <v>170047</v>
+      </c>
+      <c r="G2843" t="n">
+        <v>-1.020408163265306</v>
+      </c>
+    </row>
+    <row r="2844">
+      <c r="A2844" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B2844" t="n">
+        <v>57300</v>
+      </c>
+      <c r="C2844" t="n">
+        <v>57900</v>
+      </c>
+      <c r="D2844" t="n">
+        <v>55500</v>
+      </c>
+      <c r="E2844" t="n">
+        <v>56600</v>
+      </c>
+      <c r="F2844" t="n">
+        <v>425537</v>
+      </c>
+      <c r="G2844" t="n">
+        <v>-2.74914089347079</v>
+      </c>
+    </row>
+    <row r="2845">
+      <c r="A2845" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B2845" t="n">
+        <v>56400</v>
+      </c>
+      <c r="C2845" t="n">
+        <v>58400</v>
+      </c>
+      <c r="D2845" t="n">
+        <v>56100</v>
+      </c>
+      <c r="E2845" t="n">
+        <v>57900</v>
+      </c>
+      <c r="F2845" t="n">
+        <v>231285</v>
+      </c>
+      <c r="G2845" t="n">
+        <v>2.296819787985866</v>
+      </c>
+    </row>
+    <row r="2846">
+      <c r="A2846" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B2846" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C2846" t="n">
+        <v>57600</v>
+      </c>
+      <c r="D2846" t="n">
+        <v>55500</v>
+      </c>
+      <c r="E2846" t="n">
+        <v>56300</v>
+      </c>
+      <c r="F2846" t="n">
+        <v>232977</v>
+      </c>
+      <c r="G2846" t="n">
+        <v>-2.763385146804836</v>
+      </c>
+    </row>
+    <row r="2847">
+      <c r="A2847" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B2847" t="n">
+        <v>56300</v>
+      </c>
+      <c r="C2847" t="n">
+        <v>57100</v>
+      </c>
+      <c r="D2847" t="n">
+        <v>55500</v>
+      </c>
+      <c r="E2847" t="n">
+        <v>56700</v>
+      </c>
+      <c r="F2847" t="n">
+        <v>197885</v>
+      </c>
+      <c r="G2847" t="n">
+        <v>0.7104795737122558</v>
+      </c>
+    </row>
+    <row r="2848">
+      <c r="A2848" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B2848" t="n">
+        <v>57200</v>
+      </c>
+      <c r="C2848" t="n">
+        <v>59400</v>
+      </c>
+      <c r="D2848" t="n">
+        <v>56800</v>
+      </c>
+      <c r="E2848" t="n">
+        <v>58300</v>
+      </c>
+      <c r="F2848" t="n">
+        <v>330465</v>
+      </c>
+      <c r="G2848" t="n">
+        <v>2.821869488536155</v>
+      </c>
+    </row>
+    <row r="2849">
+      <c r="A2849" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B2849" t="n">
+        <v>58500</v>
+      </c>
+      <c r="C2849" t="n">
+        <v>61300</v>
+      </c>
+      <c r="D2849" t="n">
+        <v>58000</v>
+      </c>
+      <c r="E2849" t="n">
+        <v>59100</v>
+      </c>
+      <c r="F2849" t="n">
+        <v>463231</v>
+      </c>
+      <c r="G2849" t="n">
+        <v>1.37221269296741</v>
+      </c>
+    </row>
+    <row r="2850">
+      <c r="A2850" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B2850" t="n">
+        <v>57700</v>
+      </c>
+      <c r="C2850" t="n">
+        <v>58300</v>
+      </c>
+      <c r="D2850" t="n">
+        <v>54700</v>
+      </c>
+      <c r="E2850" t="n">
+        <v>54700</v>
+      </c>
+      <c r="F2850" t="n">
+        <v>575783</v>
+      </c>
+      <c r="G2850" t="n">
+        <v>-7.445008460236886</v>
+      </c>
+    </row>
+    <row r="2851">
+      <c r="A2851" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B2851" t="n">
+        <v>55000</v>
+      </c>
+      <c r="C2851" t="n">
+        <v>55400</v>
+      </c>
+      <c r="D2851" t="n">
+        <v>52500</v>
+      </c>
+      <c r="E2851" t="n">
+        <v>52700</v>
+      </c>
+      <c r="F2851" t="n">
+        <v>525988</v>
+      </c>
+      <c r="G2851" t="n">
+        <v>-3.656307129798903</v>
+      </c>
+    </row>
+    <row r="2852">
+      <c r="A2852" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B2852" t="n">
+        <v>47200</v>
+      </c>
+      <c r="C2852" t="n">
+        <v>48400</v>
+      </c>
+      <c r="D2852" t="n">
+        <v>42150</v>
+      </c>
+      <c r="E2852" t="n">
+        <v>43750</v>
+      </c>
+      <c r="F2852" t="n">
+        <v>4852683</v>
+      </c>
+      <c r="G2852" t="n">
+        <v>-16.98292220113852</v>
+      </c>
+    </row>
+    <row r="2853">
+      <c r="A2853" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B2853" t="n">
+        <v>43700</v>
+      </c>
+      <c r="C2853" t="n">
+        <v>45200</v>
+      </c>
+      <c r="D2853" t="n">
+        <v>42850</v>
+      </c>
+      <c r="E2853" t="n">
+        <v>44050</v>
+      </c>
+      <c r="F2853" t="n">
+        <v>1933636</v>
+      </c>
+      <c r="G2853" t="n">
+        <v>0.6857142857142857</v>
+      </c>
+    </row>
+    <row r="2854">
+      <c r="A2854" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B2854" t="n">
+        <v>44100</v>
+      </c>
+      <c r="C2854" t="n">
+        <v>44750</v>
+      </c>
+      <c r="D2854" t="n">
+        <v>43350</v>
+      </c>
+      <c r="E2854" t="n">
+        <v>43700</v>
+      </c>
+      <c r="F2854" t="n">
+        <v>1073601</v>
+      </c>
+      <c r="G2854" t="n">
+        <v>-0.7945516458569807</v>
+      </c>
+    </row>
+    <row r="2855">
+      <c r="A2855" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B2855" t="n">
+        <v>43500</v>
+      </c>
+      <c r="C2855" t="n">
+        <v>44000</v>
+      </c>
+      <c r="D2855" t="n">
+        <v>42850</v>
+      </c>
+      <c r="E2855" t="n">
+        <v>43000</v>
+      </c>
+      <c r="F2855" t="n">
+        <v>1176632</v>
+      </c>
+      <c r="G2855" t="n">
+        <v>-1.601830663615561</v>
+      </c>
+    </row>
+    <row r="2856">
+      <c r="A2856" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B2856" t="n">
+        <v>42900</v>
+      </c>
+      <c r="C2856" t="n">
+        <v>43350</v>
+      </c>
+      <c r="D2856" t="n">
+        <v>42400</v>
+      </c>
+      <c r="E2856" t="n">
+        <v>43200</v>
+      </c>
+      <c r="F2856" t="n">
+        <v>892027</v>
+      </c>
+      <c r="G2856" t="n">
+        <v>0.4651162790697674</v>
+      </c>
+    </row>
+    <row r="2857">
+      <c r="A2857" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B2857" t="n">
+        <v>43400</v>
+      </c>
+      <c r="C2857" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D2857" t="n">
+        <v>43400</v>
+      </c>
+      <c r="E2857" t="n">
+        <v>45100</v>
+      </c>
+      <c r="F2857" t="n">
+        <v>1520891</v>
+      </c>
+      <c r="G2857" t="n">
+        <v>4.398148148148148</v>
+      </c>
+    </row>
+    <row r="2858">
+      <c r="A2858" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B2858" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C2858" t="n">
+        <v>45500</v>
+      </c>
+      <c r="D2858" t="n">
+        <v>43600</v>
+      </c>
+      <c r="E2858" t="n">
+        <v>44500</v>
+      </c>
+      <c r="F2858" t="n">
+        <v>1347398</v>
+      </c>
+      <c r="G2858" t="n">
+        <v>-1.330376940133038</v>
+      </c>
+    </row>
+    <row r="2859">
+      <c r="A2859" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B2859" t="n">
+        <v>44550</v>
+      </c>
+      <c r="C2859" t="n">
+        <v>44750</v>
+      </c>
+      <c r="D2859" t="n">
+        <v>44100</v>
+      </c>
+      <c r="E2859" t="n">
+        <v>44200</v>
+      </c>
+      <c r="F2859" t="n">
+        <v>470309</v>
+      </c>
+      <c r="G2859" t="n">
+        <v>-0.6741573033707865</v>
+      </c>
+    </row>
+    <row r="2860">
+      <c r="A2860" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B2860" t="n">
+        <v>44400</v>
+      </c>
+      <c r="C2860" t="n">
+        <v>45150</v>
+      </c>
+      <c r="D2860" t="n">
+        <v>43950</v>
+      </c>
+      <c r="E2860" t="n">
+        <v>44200</v>
+      </c>
+      <c r="F2860" t="n">
+        <v>627351</v>
+      </c>
+      <c r="G2860" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2861">
+      <c r="A2861" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B2861" t="n">
+        <v>44000</v>
+      </c>
+      <c r="C2861" t="n">
+        <v>44450</v>
+      </c>
+      <c r="D2861" t="n">
+        <v>43900</v>
+      </c>
+      <c r="E2861" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F2861" t="n">
+        <v>496598</v>
+      </c>
+      <c r="G2861" t="n">
+        <v>0.2262443438914027</v>
       </c>
     </row>
   </sheetData>
